--- a/swt301/bai2.xlsx
+++ b/swt301/bai2.xlsx
@@ -153,11 +153,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24:M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -451,888 +451,888 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
         <v>2</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>3</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>4</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>5</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>6</v>
       </c>
-      <c r="O2" s="2">
-        <v>7</v>
-      </c>
-      <c r="P2" s="2">
+      <c r="O2" s="1">
+        <v>7</v>
+      </c>
+      <c r="P2" s="1">
         <v>8</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>9</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>10</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>100</v>
-      </c>
-      <c r="C3" s="2">
-        <v>100</v>
-      </c>
-      <c r="D3" s="2">
-        <v>100</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>100</v>
+      </c>
+      <c r="C3" s="1">
+        <v>100</v>
+      </c>
+      <c r="D3" s="1">
+        <v>100</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" s="2" t="s">
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <v>100</v>
-      </c>
-      <c r="C4" s="2">
-        <v>100</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="B4" s="1">
+        <v>100</v>
+      </c>
+      <c r="C4" s="1">
+        <v>100</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S4" s="2" t="s">
+      <c r="J4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <v>100</v>
-      </c>
-      <c r="C5" s="2">
-        <v>100</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="B5" s="1">
+        <v>100</v>
+      </c>
+      <c r="C5" s="1">
+        <v>100</v>
+      </c>
+      <c r="D5" s="1">
         <v>2</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S5" s="2" t="s">
+      <c r="K5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
-        <v>100</v>
-      </c>
-      <c r="C6" s="2">
-        <v>100</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="B6" s="1">
+        <v>100</v>
+      </c>
+      <c r="C6" s="1">
+        <v>100</v>
+      </c>
+      <c r="D6" s="1">
         <v>199</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="S6" s="2" t="s">
+      <c r="L6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
-        <v>100</v>
-      </c>
-      <c r="C7" s="2">
-        <v>100</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="B7" s="1">
+        <v>100</v>
+      </c>
+      <c r="C7" s="1">
+        <v>100</v>
+      </c>
+      <c r="D7" s="1">
         <v>200</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="S7" s="2" t="s">
+      <c r="L7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
-        <v>100</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>100</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="B8" s="1">
+        <v>100</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>100</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S8" s="2" t="s">
+      <c r="L8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
-        <v>100</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>100</v>
+      </c>
+      <c r="C9" s="1">
         <v>2</v>
       </c>
-      <c r="D9" s="2">
-        <v>100</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="D9" s="1">
+        <v>100</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>32</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <v>16</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <v>8</v>
       </c>
-      <c r="L9" s="2">
-        <v>1</v>
-      </c>
-      <c r="M9" s="2">
-        <v>1</v>
-      </c>
-      <c r="N9" s="2">
-        <v>1</v>
-      </c>
-      <c r="O9" s="2">
-        <v>1</v>
-      </c>
-      <c r="P9" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2">
-        <v>1</v>
-      </c>
-      <c r="S9" s="2">
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1</v>
+      </c>
+      <c r="R9" s="1">
+        <v>1</v>
+      </c>
+      <c r="S9" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
-        <v>100</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10" s="1">
+        <v>100</v>
+      </c>
+      <c r="C10" s="1">
         <v>199</v>
       </c>
-      <c r="D10" s="2">
-        <v>100</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="D10" s="1">
+        <v>100</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
-        <v>100</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B11" s="1">
+        <v>100</v>
+      </c>
+      <c r="C11" s="1">
         <v>200</v>
       </c>
-      <c r="D11" s="2">
-        <v>100</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="1">
+        <v>100</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2" t="s">
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>100</v>
-      </c>
-      <c r="D12" s="2">
-        <v>100</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="2" t="s">
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>100</v>
+      </c>
+      <c r="D12" s="1">
+        <v>100</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2" t="s">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2" t="s">
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="R12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S12" s="2"/>
+      <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>2</v>
       </c>
-      <c r="C13" s="2">
-        <v>100</v>
-      </c>
-      <c r="D13" s="2">
-        <v>100</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="2" t="s">
+      <c r="C13" s="1">
+        <v>100</v>
+      </c>
+      <c r="D13" s="1">
+        <v>100</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2" t="s">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>199</v>
       </c>
-      <c r="C14" s="2">
-        <v>100</v>
-      </c>
-      <c r="D14" s="2">
-        <v>100</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="2" t="s">
+      <c r="C14" s="1">
+        <v>100</v>
+      </c>
+      <c r="D14" s="1">
+        <v>100</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2" t="s">
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="N14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2" t="s">
+      <c r="O14" s="1"/>
+      <c r="P14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>200</v>
       </c>
-      <c r="C15" s="2">
-        <v>100</v>
-      </c>
-      <c r="D15" s="2">
-        <v>100</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="C15" s="1">
+        <v>100</v>
+      </c>
+      <c r="D15" s="1">
+        <v>100</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J16" s="2" t="s">
+      <c r="I16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H17" s="2">
-        <v>1</v>
-      </c>
-      <c r="I17" s="2">
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
         <v>5</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="1">
         <v>3</v>
       </c>
-      <c r="K17" s="2">
-        <v>1</v>
-      </c>
-      <c r="L17" s="2" t="s">
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>2</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <v>5</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="1">
         <v>9</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="1">
         <v>3</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H19" s="2">
+      <c r="H19" s="1">
         <v>3</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="1">
         <v>5</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="1">
         <v>2</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="1">
         <v>8</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="M19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H20" s="2">
+      <c r="H20" s="1">
         <v>4</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="1">
         <v>3</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="1">
         <v>3</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="1">
         <v>3</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="L20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H21" s="2">
+      <c r="H21" s="1">
         <v>5</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="1">
         <v>3</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="1">
         <v>3</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="1">
         <v>2</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="L21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H22" s="2">
+      <c r="H22" s="1">
         <v>6</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="1">
         <v>5</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="1">
         <v>6</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="1">
         <v>5</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H23" s="2">
-        <v>7</v>
-      </c>
-      <c r="I23" s="2">
-        <v>7</v>
-      </c>
-      <c r="J23" s="2">
+      <c r="H23" s="1">
+        <v>7</v>
+      </c>
+      <c r="I23" s="1">
+        <v>7</v>
+      </c>
+      <c r="J23" s="1">
         <v>5</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="1">
         <v>5</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="L23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="24" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H24" s="2">
+      <c r="H24" s="1">
         <v>8</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="1">
         <v>3</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="1">
         <v>5</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="1">
         <v>6</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="L24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
     </row>
     <row r="26" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
     </row>
     <row r="27" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
